--- a/sample/pages.xlsx
+++ b/sample/pages.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URI</t>
   </si>
   <si>
     <t>ページタイトル（固有部分）</t>
@@ -58,19 +55,73 @@
     <t>ページタイトル（全体）</t>
   </si>
   <si>
-    <t>ディスクリプション（検索サイト・faceboookで表示）</t>
-  </si>
-  <si>
     <t>キーワード（SEO）</t>
   </si>
   <si>
-    <t>og:url（facebook向け）</t>
-  </si>
-  <si>
-    <t>og:image（facebook向け）</t>
-  </si>
-  <si>
-    <t>aaa</t>
+    <t>○○○Webサイト サイトマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_dir_1/sample.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL（og:url, cannonical）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスクリプション（検索サイト、og:description）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムネイル（og:image）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトルートURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://example.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_dir_1/sample_subdir/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルサブカテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルページ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルページ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_dir_1/sample_subdir/sample_1.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_dir_1/sample_subdir/sample_2.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -78,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +144,44 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -110,12 +189,231 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -134,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,84 +718,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-2))</f>
+        <v>サンプルサイト</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-2))&amp;INDIRECT(ADDRESS(ROW(),COLUMN()-1))&amp;INDIRECT(ADDRESS(4,4))</f>
+        <v>サンプルカテゴリー1 | サンプルサイト</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="str">
-        <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-2))&amp;INDIRECT(ADDRESS(ROW(),COLUMN()-1))&amp;INDIRECT(ADDRESS(5,4))</f>
-        <v>サンプルカテゴリー1 | サンプルサイト</v>
-      </c>
-    </row>
+      <c r="C10" s="3" t="str">
+        <f ca="1">" | "&amp;INDIRECT(ADDRESS(9,2))</f>
+        <v xml:space="preserve"> | サンプルカテゴリー1</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" ref="D10:D13" ca="1" si="0">INDIRECT(ADDRESS(ROW(),COLUMN()-2))&amp;INDIRECT(ADDRESS(ROW(),COLUMN()-1))&amp;INDIRECT(ADDRESS(4,4))</f>
+        <v>サンプルページ | サンプルカテゴリー1 | サンプルサイト</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f ca="1">" | "&amp;INDIRECT(ADDRESS(9,2))</f>
+        <v xml:space="preserve"> | サンプルカテゴリー1</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>サンプルサブカテゴリー | サンプルカテゴリー1 | サンプルサイト</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f ca="1">" | "&amp;INDIRECT(ADDRESS(11,2))&amp;" | "&amp;INDIRECT(ADDRESS(9,2))</f>
+        <v xml:space="preserve"> | サンプルサブカテゴリー | サンプルカテゴリー1</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>サンプルページ1 | サンプルサブカテゴリー | サンプルカテゴリー1 | サンプルサイト</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f ca="1">" | "&amp;INDIRECT(ADDRESS(11,2))&amp;" | "&amp;INDIRECT(ADDRESS(9,2))</f>
+        <v xml:space="preserve"> | サンプルサブカテゴリー | サンプルカテゴリー1</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>サンプルページ2 | サンプルサブカテゴリー | サンプルカテゴリー1 | サンプルサイト</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/sample/pages.xlsx
+++ b/sample/pages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>index.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページタイトル（固有部分）</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>サンプルサイト</t>
     <phoneticPr fontId="1"/>
@@ -37,10 +30,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sample_dir_1/index.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サンプルカテゴリー1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -49,9 +38,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ページタイトル（カテゴリー）</t>
-  </si>
-  <si>
     <t>ページタイトル（全体）</t>
   </si>
   <si>
@@ -59,10 +45,6 @@
   </si>
   <si>
     <t>○○○Webサイト サイトマップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample_dir_1/sample.html</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -77,52 +59,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>URL（og:url, cannonical）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスクリプション（検索サイト、og:description）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムネイル（og:image）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトルートURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://example.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルページ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルページ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルサブカテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーツリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL（og:url, cannonical）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディスクリプション（検索サイト、og:description）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サムネイル（og:image）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイトルートURL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://example.com/</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>sample_dir_1/index.html</t>
+  </si>
+  <si>
+    <t>sample_dir_1/sample.html</t>
   </si>
   <si>
     <t>sample_dir_1/sample_subdir/index.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプルサブカテゴリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプルページ1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプルページ2</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>sample_dir_1/sample_subdir/sample_1.html</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>sample_dir_1/sample_subdir/sample_2.html</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -190,7 +189,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="hair">
         <color auto="1"/>
       </left>
       <right style="hair">
@@ -205,8 +204,120 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="hair">
         <color auto="1"/>
@@ -223,8 +334,8 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -235,8 +346,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="hair">
         <color auto="1"/>
@@ -244,8 +355,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -259,8 +370,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -268,125 +379,13 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -395,25 +394,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -718,265 +720,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="G6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="str">
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-2))</f>
         <v>サンプルサイト</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="str">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f ca="1">IF(NOT(ISBLANK(INDIRECT(ADDRESS(ROW()-1,COLUMN()-1))))," | "&amp;INDIRECT(ADDRESS(ROW()-1,COLUMN()-1)),"BBB")</f>
+        <v>BBB</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="str">
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-2))&amp;INDIRECT(ADDRESS(ROW(),COLUMN()-1))&amp;INDIRECT(ADDRESS(4,4))</f>
-        <v>サンプルカテゴリー1 | サンプルサイト</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f ca="1">" | "&amp;INDIRECT(ADDRESS(9,2))</f>
+        <v>sample_dir_1/index.html</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f ca="1">IF(NOT(ISBLANK(INDIRECT(ADDRESS(ROW()-1,COLUMN()-1))))," | "&amp;INDIRECT(ADDRESS(ROW()-1,COLUMN()-1)),"BBB")</f>
         <v xml:space="preserve"> | サンプルカテゴリー1</v>
       </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" ref="D10:D13" ca="1" si="0">INDIRECT(ADDRESS(ROW(),COLUMN()-2))&amp;INDIRECT(ADDRESS(ROW(),COLUMN()-1))&amp;INDIRECT(ADDRESS(4,4))</f>
-        <v>サンプルページ | サンプルカテゴリー1 | サンプルサイト</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f ca="1">" | "&amp;INDIRECT(ADDRESS(9,2))</f>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-2))&amp;INDIRECT(ADDRESS(ROW(),COLUMN()-1))&amp;INDIRECT(ADDRESS(4,4))</f>
+        <v>sample_dir_1/index.html</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2" t="str">
+        <f ca="1">IF(NOT(ISBLANK(INDIRECT(ADDRESS(ROW()-1,COLUMN()-1))))," | "&amp;INDIRECT(ADDRESS(ROW()-1,COLUMN()-1)),"BBB")</f>
         <v xml:space="preserve"> | サンプルカテゴリー1</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" ref="E11:E14" ca="1" si="0">INDIRECT(ADDRESS(ROW(),COLUMN()-2))&amp;INDIRECT(ADDRESS(ROW(),COLUMN()-1))&amp;INDIRECT(ADDRESS(4,4))</f>
+        <v>サンプルページsample_dir_1/sample.html</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f ca="1">IF(NOT(ISBLANK(INDIRECT(ADDRESS(ROW()-1,COLUMN()-1))))," | "&amp;INDIRECT(ADDRESS(ROW()-1,COLUMN()-1)),INDIRECT(ADDRESS(ROW()-1,COLUMN())))</f>
+        <v xml:space="preserve"> | サンプルカテゴリー1</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>サンプルサブカテゴリー | サンプルカテゴリー1 | サンプルサイト</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f ca="1">" | "&amp;INDIRECT(ADDRESS(11,2))&amp;" | "&amp;INDIRECT(ADDRESS(9,2))</f>
-        <v xml:space="preserve"> | サンプルサブカテゴリー | サンプルカテゴリー1</v>
-      </c>
-      <c r="D12" s="3" t="str">
+        <v>sample_dir_1/sample_subdir/index.html</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="2" t="str">
+        <f ca="1">IF(NOT(ISBLANK(INDIRECT(ADDRESS(ROW()-1,COLUMN()-1))))," | "&amp;INDIRECT(ADDRESS(ROW()-1,COLUMN()-1)),INDIRECT(ADDRESS(ROW()-1,COLUMN())))</f>
+        <v xml:space="preserve"> | サンプルサブカテゴリー</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>サンプルページ1 | サンプルサブカテゴリー | サンプルカテゴリー1 | サンプルサイト</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f ca="1">" | "&amp;INDIRECT(ADDRESS(11,2))&amp;" | "&amp;INDIRECT(ADDRESS(9,2))</f>
-        <v xml:space="preserve"> | サンプルサブカテゴリー | サンプルカテゴリー1</v>
-      </c>
-      <c r="D13" s="3" t="str">
+        <v>サンプルページ1sample_dir_1/sample_subdir/sample_1.html</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>サンプルページ2 | サンプルサブカテゴリー | サンプルカテゴリー1 | サンプルサイト</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+        <v>サンプルページ2sample_dir_1/sample_subdir/sample_2.html</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="33" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>